--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Securekloud Technologies Ltd/Pruned_Excel/Semi_Final/Securekloud Technologies Ltd_Semi_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Securekloud Technologies Ltd/Pruned_Excel/Semi_Final/Securekloud Technologies Ltd_Semi_Semi_Final.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>Balance Sheet of Securekloud Technologies(in Rs. Cr.)</t>
+  </si>
+  <si>
+    <t>Month</t>
   </si>
   <si>
     <t>Total share capital</t>
@@ -55,66 +58,6 @@
   </si>
   <si>
     <t>Total assets</t>
-  </si>
-  <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
   </si>
   <si>
     <t>Profit &amp; Loss account of Securekloud Technologies(in Rs. Cr.)</t>
@@ -186,6 +129,9 @@
     <t>Quarterly Results of Securekloud Technologies(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>Net sales/income from operations</t>
   </si>
   <si>
@@ -240,139 +186,16 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>Sep 13 Q2</t>
+    <t>Q2</t>
   </si>
   <si>
-    <t>Dec 13 Q3</t>
+    <t>Q3</t>
   </si>
   <si>
-    <t>Mar 14 Q4</t>
+    <t>Q4</t>
   </si>
   <si>
-    <t>Jun 14 Q1</t>
-  </si>
-  <si>
-    <t>Sep 14 Q2</t>
-  </si>
-  <si>
-    <t>Dec 14 Q3</t>
-  </si>
-  <si>
-    <t>Mar 15 Q4</t>
-  </si>
-  <si>
-    <t>Jun 15 Q1</t>
-  </si>
-  <si>
-    <t>Sep 15 Q2</t>
-  </si>
-  <si>
-    <t>Dec 15 Q3</t>
-  </si>
-  <si>
-    <t>Mar 16 Q4</t>
-  </si>
-  <si>
-    <t>Jun 16 Q1</t>
-  </si>
-  <si>
-    <t>Sep 16 Q2</t>
-  </si>
-  <si>
-    <t>Dec 16 Q3</t>
-  </si>
-  <si>
-    <t>Mar 17 Q4</t>
-  </si>
-  <si>
-    <t>Jun 17 Q1</t>
-  </si>
-  <si>
-    <t>Sep 17 Q2</t>
-  </si>
-  <si>
-    <t>Dec 17 Q3</t>
-  </si>
-  <si>
-    <t>Mar 18 Q4</t>
-  </si>
-  <si>
-    <t>Jun 18 Q1</t>
-  </si>
-  <si>
-    <t>Sep 18 Q2</t>
-  </si>
-  <si>
-    <t>Dec 18 Q3</t>
-  </si>
-  <si>
-    <t>Mar 19 Q4</t>
-  </si>
-  <si>
-    <t>Jun 19 Q1</t>
-  </si>
-  <si>
-    <t>Sep 19 Q2</t>
-  </si>
-  <si>
-    <t>Dec 19 Q3</t>
-  </si>
-  <si>
-    <t>Mar 20 Q4</t>
-  </si>
-  <si>
-    <t>Jun 20 Q1</t>
-  </si>
-  <si>
-    <t>Sep 20 Q2</t>
-  </si>
-  <si>
-    <t>Dec 20 Q3</t>
-  </si>
-  <si>
-    <t>Mar 21 Q4</t>
-  </si>
-  <si>
-    <t>Jun 21 Q1</t>
-  </si>
-  <si>
-    <t>Sep 21 Q2</t>
-  </si>
-  <si>
-    <t>Dec 21 Q3</t>
-  </si>
-  <si>
-    <t>Mar 22 Q4</t>
-  </si>
-  <si>
-    <t>Jun 22 Q1</t>
-  </si>
-  <si>
-    <t>Sep 22 Q2</t>
-  </si>
-  <si>
-    <t>Dec 22 Q3</t>
-  </si>
-  <si>
-    <t>Mar 23 Q4</t>
-  </si>
-  <si>
-    <t>Jun 23 Q1</t>
-  </si>
-  <si>
-    <t>Sep 23 Q2</t>
-  </si>
-  <si>
-    <t>Dec 23 Q3</t>
-  </si>
-  <si>
-    <t>Mar 24 Q4</t>
-  </si>
-  <si>
-    <t>Jun 24 Q1</t>
-  </si>
-  <si>
-    <t>Sep 24 Q2</t>
+    <t>Q1</t>
   </si>
 </sst>
 </file>
@@ -730,13 +553,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -776,824 +599,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>2005</v>
+      </c>
       <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
         <v>1.56</v>
-      </c>
-      <c r="C2">
-        <v>-0.64</v>
       </c>
       <c r="D2">
         <v>-0.64</v>
       </c>
       <c r="E2">
+        <v>-0.64</v>
+      </c>
+      <c r="F2">
         <v>0.92</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>13.84</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>14.88</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>22.61</v>
-      </c>
-      <c r="I2">
-        <v>1.24</v>
       </c>
       <c r="J2">
         <v>1.24</v>
       </c>
       <c r="K2">
+        <v>1.24</v>
+      </c>
+      <c r="L2">
         <v>1.95</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>20.66</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>22.61</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2006</v>
       </c>
       <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
         <v>1.56</v>
-      </c>
-      <c r="C3">
-        <v>-0.7</v>
       </c>
       <c r="D3">
         <v>-0.7</v>
       </c>
       <c r="E3">
+        <v>-0.7</v>
+      </c>
+      <c r="F3">
         <v>0.86</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>13.66</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>14.7</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>22.37</v>
-      </c>
-      <c r="I3">
-        <v>1.24</v>
       </c>
       <c r="J3">
         <v>1.24</v>
       </c>
       <c r="K3">
+        <v>1.24</v>
+      </c>
+      <c r="L3">
         <v>1.95</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>20.42</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>22.37</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>2007</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>1.56</v>
-      </c>
-      <c r="C4">
-        <v>3.55</v>
       </c>
       <c r="D4">
         <v>3.55</v>
       </c>
       <c r="E4">
+        <v>3.55</v>
+      </c>
+      <c r="F4">
         <v>5.11</v>
-      </c>
-      <c r="F4">
-        <v>0.35</v>
       </c>
       <c r="G4">
         <v>0.35</v>
       </c>
       <c r="H4">
+        <v>0.35</v>
+      </c>
+      <c r="I4">
         <v>8.640000000000001</v>
-      </c>
-      <c r="I4">
-        <v>1.24</v>
       </c>
       <c r="J4">
         <v>1.24</v>
       </c>
       <c r="K4">
+        <v>1.24</v>
+      </c>
+      <c r="L4">
         <v>1.95</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>6.69</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8.640000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>16</v>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2008</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
         <v>1.56</v>
-      </c>
-      <c r="C5">
-        <v>3.63</v>
       </c>
       <c r="D5">
         <v>3.63</v>
       </c>
       <c r="E5">
+        <v>3.63</v>
+      </c>
+      <c r="F5">
         <v>5.19</v>
-      </c>
-      <c r="F5">
-        <v>0.1</v>
       </c>
       <c r="G5">
         <v>0.1</v>
       </c>
       <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
         <v>8.73</v>
-      </c>
-      <c r="I5">
-        <v>0.77</v>
       </c>
       <c r="J5">
         <v>0.77</v>
       </c>
       <c r="K5">
+        <v>0.77</v>
+      </c>
+      <c r="L5">
         <v>1.48</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>7.24</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>8.73</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>17</v>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>2009</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>1.56</v>
-      </c>
-      <c r="C6">
-        <v>4.79</v>
       </c>
       <c r="D6">
         <v>4.79</v>
       </c>
       <c r="E6">
+        <v>4.79</v>
+      </c>
+      <c r="F6">
         <v>6.35</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>7.12</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.08</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>7.83</v>
-      </c>
-      <c r="I6">
-        <v>0.11</v>
       </c>
       <c r="J6">
         <v>0.11</v>
       </c>
       <c r="K6">
+        <v>0.11</v>
+      </c>
+      <c r="L6">
         <v>0.82</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>7.01</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>7.83</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>18</v>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>2010</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>1.56</v>
-      </c>
-      <c r="C7">
-        <v>6.12</v>
       </c>
       <c r="D7">
         <v>6.12</v>
       </c>
       <c r="E7">
+        <v>6.12</v>
+      </c>
+      <c r="F7">
         <v>7.68</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>7.12</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.08</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7.84</v>
-      </c>
-      <c r="I7">
-        <v>0.09</v>
       </c>
       <c r="J7">
         <v>0.09</v>
       </c>
       <c r="K7">
+        <v>0.09</v>
+      </c>
+      <c r="L7">
         <v>1.3</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6.54</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>7.84</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>19</v>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>2011</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>5.55</v>
-      </c>
-      <c r="C8">
-        <v>13.64</v>
       </c>
       <c r="D8">
         <v>13.64</v>
       </c>
       <c r="E8">
+        <v>13.64</v>
+      </c>
+      <c r="F8">
         <v>19.2</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.92</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.98</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>29.22</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.02</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>8.960000000000001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>25.64</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3.57</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>29.22</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>20</v>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2012</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>5.55</v>
-      </c>
-      <c r="C9">
-        <v>13.69</v>
       </c>
       <c r="D9">
         <v>13.69</v>
       </c>
       <c r="E9">
+        <v>13.69</v>
+      </c>
+      <c r="F9">
         <v>19.24</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4.73</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6.51</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>33.28</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.03</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>9.800000000000001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>26.66</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>6.61</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>33.28</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>21</v>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>2013</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
         <v>10.04</v>
-      </c>
-      <c r="C10">
-        <v>11.94</v>
       </c>
       <c r="D10">
         <v>11.94</v>
       </c>
       <c r="E10">
+        <v>11.94</v>
+      </c>
+      <c r="F10">
         <v>21.99</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.7</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.83</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>32.73</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.27</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10.76</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>28.29</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>4.45</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>32.73</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>2014</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
         <v>10.04</v>
-      </c>
-      <c r="C11">
-        <v>12.03</v>
       </c>
       <c r="D11">
         <v>12.03</v>
       </c>
       <c r="E11">
+        <v>12.03</v>
+      </c>
+      <c r="F11">
         <v>22.08</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.57</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>4.24</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>34.91</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.36</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>10.95</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>30.47</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>4.44</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>34.91</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>2015</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>10.34</v>
-      </c>
-      <c r="C12">
-        <v>24.4</v>
       </c>
       <c r="D12">
         <v>24.4</v>
       </c>
       <c r="E12">
+        <v>24.4</v>
+      </c>
+      <c r="F12">
         <v>34.74</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.66</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1.06</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>47.87</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.15</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>11.74</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>37.61</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>10.26</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>47.87</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>24</v>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>2016</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>10.89</v>
-      </c>
-      <c r="C13">
-        <v>46.99</v>
       </c>
       <c r="D13">
         <v>46.99</v>
       </c>
       <c r="E13">
+        <v>46.99</v>
+      </c>
+      <c r="F13">
         <v>57.88</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>5.8</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10.73</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>74.98</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>1.38</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>7.46</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>61.63</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>13.35</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>74.98</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>25</v>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>2017</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>15.26</v>
-      </c>
-      <c r="C14">
-        <v>61.63</v>
       </c>
       <c r="D14">
         <v>61.63</v>
       </c>
       <c r="E14">
+        <v>61.63</v>
+      </c>
+      <c r="F14">
         <v>76.89</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>7.71</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>19.2</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>116.75</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.99</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4.77</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>98.06</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>18.69</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>116.75</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>26</v>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>2018</v>
       </c>
       <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
         <v>15.26</v>
-      </c>
-      <c r="C15">
-        <v>62.94</v>
       </c>
       <c r="D15">
         <v>62.94</v>
       </c>
       <c r="E15">
+        <v>62.94</v>
+      </c>
+      <c r="F15">
         <v>78.2</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>15.22</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>37.01</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>166.02</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.83</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.9399999999999999</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>124.67</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>41.35</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>166.02</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>27</v>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>2019</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>15.26</v>
-      </c>
-      <c r="C16">
-        <v>72.75</v>
       </c>
       <c r="D16">
         <v>72.75</v>
       </c>
       <c r="E16">
+        <v>72.75</v>
+      </c>
+      <c r="F16">
         <v>88</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>14.35</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>52.65</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>196.11</v>
-      </c>
-      <c r="I16">
-        <v>0.62</v>
       </c>
       <c r="J16">
         <v>0.62</v>
       </c>
       <c r="K16">
+        <v>0.62</v>
+      </c>
+      <c r="L16">
         <v>121.72</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>74.40000000000001</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>196.11</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>28</v>
+    <row r="17" spans="1:14">
+      <c r="A17">
+        <v>2020</v>
       </c>
       <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
         <v>15.26</v>
-      </c>
-      <c r="C17">
-        <v>67.47</v>
       </c>
       <c r="D17">
         <v>67.47</v>
       </c>
       <c r="E17">
+        <v>67.47</v>
+      </c>
+      <c r="F17">
         <v>82.72</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>7.28</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>25.02</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>172.51</v>
-      </c>
-      <c r="I17">
-        <v>0.57</v>
       </c>
       <c r="J17">
         <v>0.57</v>
       </c>
       <c r="K17">
+        <v>0.57</v>
+      </c>
+      <c r="L17">
         <v>121.82</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>50.7</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>172.51</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>29</v>
+    <row r="18" spans="1:14">
+      <c r="A18">
+        <v>2021</v>
       </c>
       <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
         <v>15.26</v>
-      </c>
-      <c r="C18">
-        <v>67.36</v>
       </c>
       <c r="D18">
         <v>67.36</v>
       </c>
       <c r="E18">
+        <v>67.36</v>
+      </c>
+      <c r="F18">
         <v>93.87</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>6.77</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>23.12</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>173.97</v>
-      </c>
-      <c r="I18">
-        <v>1.35</v>
       </c>
       <c r="J18">
         <v>1.35</v>
       </c>
       <c r="K18">
+        <v>1.35</v>
+      </c>
+      <c r="L18">
         <v>139.95</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>34.02</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>173.97</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>30</v>
+    <row r="19" spans="1:14">
+      <c r="A19">
+        <v>2022</v>
       </c>
       <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>16.09</v>
-      </c>
-      <c r="C19">
-        <v>77.36</v>
       </c>
       <c r="D19">
         <v>77.36</v>
       </c>
       <c r="E19">
+        <v>77.36</v>
+      </c>
+      <c r="F19">
         <v>100.53</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7.3</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>22.41</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>173.27</v>
-      </c>
-      <c r="I19">
-        <v>8.17</v>
       </c>
       <c r="J19">
         <v>8.17</v>
       </c>
       <c r="K19">
+        <v>8.17</v>
+      </c>
+      <c r="L19">
         <v>150.1</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>23.18</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>173.27</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>31</v>
+    <row r="20" spans="1:14">
+      <c r="A20">
+        <v>2023</v>
       </c>
       <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
         <v>16.71</v>
-      </c>
-      <c r="C20">
-        <v>86.31999999999999</v>
       </c>
       <c r="D20">
         <v>86.31999999999999</v>
       </c>
       <c r="E20">
+        <v>86.31999999999999</v>
+      </c>
+      <c r="F20">
         <v>107.04</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>6.42</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>30.52</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>175.65</v>
-      </c>
-      <c r="I20">
-        <v>6.74</v>
       </c>
       <c r="J20">
         <v>6.74</v>
       </c>
       <c r="K20">
+        <v>6.74</v>
+      </c>
+      <c r="L20">
         <v>148.63</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>27.02</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>175.65</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>32</v>
+    <row r="21" spans="1:14">
+      <c r="A21">
+        <v>2024</v>
       </c>
       <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>16.71</v>
-      </c>
-      <c r="C21">
-        <v>58.63</v>
       </c>
       <c r="D21">
         <v>58.63</v>
       </c>
       <c r="E21">
+        <v>58.63</v>
+      </c>
+      <c r="F21">
         <v>79.34999999999999</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>21.78</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>39.59</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>153.79</v>
-      </c>
-      <c r="I21">
-        <v>4.08</v>
       </c>
       <c r="J21">
         <v>4.08</v>
       </c>
       <c r="K21">
+        <v>4.08</v>
+      </c>
+      <c r="L21">
         <v>117.42</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>36.37</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>153.79</v>
       </c>
     </row>
@@ -1604,86 +1490,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2005</v>
       </c>
       <c r="B2">
-        <v>25.268</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>25.268</v>
@@ -1692,46 +1581,46 @@
         <v>25.268</v>
       </c>
       <c r="E2">
+        <v>25.268</v>
+      </c>
+      <c r="F2">
         <v>1.219</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>24.881</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>13.535</v>
       </c>
-      <c r="I2">
-        <v>3.972</v>
-      </c>
       <c r="J2">
-        <v>1.596</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0.01</v>
       </c>
       <c r="M2">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="N2">
         <v>-0.01</v>
       </c>
       <c r="O2">
-        <v>0.717</v>
+        <v>-0.01</v>
       </c>
       <c r="P2">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>0.719</v>
-      </c>
-      <c r="R2">
-        <v>-0.01</v>
       </c>
       <c r="S2">
         <v>-0.01</v>
@@ -1740,18 +1629,21 @@
         <v>-0.01</v>
       </c>
       <c r="U2">
-        <v>-0.06</v>
+        <v>-0.01</v>
       </c>
       <c r="V2">
         <v>-0.06</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>14</v>
+      <c r="W2">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2006</v>
       </c>
       <c r="B3">
-        <v>25.268</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>25.268</v>
@@ -1760,46 +1652,46 @@
         <v>25.268</v>
       </c>
       <c r="E3">
+        <v>25.268</v>
+      </c>
+      <c r="F3">
         <v>1.219</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>24.881</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>13.535</v>
       </c>
-      <c r="I3">
-        <v>3.972</v>
-      </c>
       <c r="J3">
-        <v>1.596</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0.06</v>
       </c>
       <c r="M3">
-        <v>-0.06</v>
+        <v>0.06</v>
       </c>
       <c r="N3">
         <v>-0.06</v>
       </c>
       <c r="O3">
-        <v>0.717</v>
+        <v>-0.06</v>
       </c>
       <c r="P3">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>0.719</v>
-      </c>
-      <c r="R3">
-        <v>-0.06</v>
       </c>
       <c r="S3">
         <v>-0.06</v>
@@ -1808,18 +1700,21 @@
         <v>-0.06</v>
       </c>
       <c r="U3">
-        <v>-0.38</v>
+        <v>-0.06</v>
       </c>
       <c r="V3">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>15</v>
+      <c r="W3">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2007</v>
       </c>
       <c r="B4">
-        <v>0.05</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0.05</v>
@@ -1828,46 +1723,46 @@
         <v>0.05</v>
       </c>
       <c r="E4">
+        <v>0.05</v>
+      </c>
+      <c r="F4">
         <v>0.63</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.68</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>13.535</v>
       </c>
-      <c r="I4">
-        <v>3.972</v>
-      </c>
       <c r="J4">
-        <v>1.596</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0.02</v>
       </c>
       <c r="M4">
-        <v>0.66</v>
+        <v>0.02</v>
       </c>
       <c r="N4">
         <v>0.66</v>
       </c>
       <c r="O4">
-        <v>0.717</v>
+        <v>0.66</v>
       </c>
       <c r="P4">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>0.719</v>
-      </c>
-      <c r="R4">
-        <v>0.66</v>
       </c>
       <c r="S4">
         <v>0.66</v>
@@ -1876,18 +1771,21 @@
         <v>0.66</v>
       </c>
       <c r="U4">
-        <v>4.23</v>
+        <v>0.66</v>
       </c>
       <c r="V4">
         <v>4.23</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>16</v>
+      <c r="W4">
+        <v>4.23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2008</v>
       </c>
       <c r="B5">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0.2</v>
@@ -1896,66 +1794,69 @@
         <v>0.2</v>
       </c>
       <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
         <v>0.14</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.34</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0.03</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.26</v>
       </c>
-      <c r="J5">
-        <v>1.596</v>
-      </c>
       <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>0.03</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.33</v>
-      </c>
-      <c r="M5">
-        <v>0.01</v>
       </c>
       <c r="N5">
         <v>0.01</v>
       </c>
       <c r="O5">
-        <v>0.717</v>
+        <v>0.01</v>
       </c>
       <c r="P5">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>0.719</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.01</v>
-      </c>
-      <c r="S5">
-        <v>0.08</v>
       </c>
       <c r="T5">
         <v>0.08</v>
       </c>
       <c r="U5">
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="V5">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>17</v>
+      <c r="W5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2009</v>
       </c>
       <c r="B6">
-        <v>25.268</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>25.268</v>
@@ -1964,46 +1865,46 @@
         <v>25.268</v>
       </c>
       <c r="E6">
-        <v>1.35</v>
+        <v>25.268</v>
       </c>
       <c r="F6">
         <v>1.35</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0.03</v>
       </c>
-      <c r="I6">
-        <v>3.972</v>
-      </c>
       <c r="J6">
-        <v>1.596</v>
+        <v>0</v>
       </c>
       <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.1</v>
-      </c>
-      <c r="M6">
-        <v>1.25</v>
       </c>
       <c r="N6">
         <v>1.25</v>
       </c>
       <c r="O6">
+        <v>1.25</v>
+      </c>
+      <c r="P6">
         <v>0.08</v>
       </c>
-      <c r="P6">
-        <v>0.178</v>
-      </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>0.08</v>
-      </c>
-      <c r="R6">
-        <v>1.17</v>
       </c>
       <c r="S6">
         <v>1.17</v>
@@ -2012,18 +1913,21 @@
         <v>1.17</v>
       </c>
       <c r="U6">
-        <v>7.47</v>
+        <v>1.17</v>
       </c>
       <c r="V6">
         <v>7.47</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
-        <v>18</v>
+      <c r="W6">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2010</v>
       </c>
       <c r="B7">
-        <v>0.09</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0.09</v>
@@ -2032,46 +1936,46 @@
         <v>0.09</v>
       </c>
       <c r="E7">
+        <v>0.09</v>
+      </c>
+      <c r="F7">
         <v>1.219</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.09</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0.01</v>
       </c>
-      <c r="I7">
-        <v>3.972</v>
-      </c>
       <c r="J7">
-        <v>1.596</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0.05</v>
       </c>
       <c r="M7">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="N7">
         <v>0.04</v>
       </c>
       <c r="O7">
-        <v>0.717</v>
+        <v>0.04</v>
       </c>
       <c r="P7">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>0.719</v>
-      </c>
-      <c r="R7">
-        <v>0.04</v>
       </c>
       <c r="S7">
         <v>0.04</v>
@@ -2080,18 +1984,21 @@
         <v>0.04</v>
       </c>
       <c r="U7">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="V7">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
-        <v>19</v>
+      <c r="W7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>2011</v>
       </c>
       <c r="B8">
-        <v>1.12</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1.12</v>
@@ -2100,46 +2007,46 @@
         <v>1.12</v>
       </c>
       <c r="E8">
+        <v>1.12</v>
+      </c>
+      <c r="F8">
         <v>1.219</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.12</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0.51</v>
       </c>
-      <c r="I8">
-        <v>3.972</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>0.01</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>0.27</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.79</v>
-      </c>
-      <c r="M8">
-        <v>0.33</v>
       </c>
       <c r="N8">
         <v>0.33</v>
       </c>
       <c r="O8">
+        <v>0.33</v>
+      </c>
+      <c r="P8">
         <v>0.07000000000000001</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-0.08</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-0.01</v>
-      </c>
-      <c r="R8">
-        <v>0.34</v>
       </c>
       <c r="S8">
         <v>0.34</v>
@@ -2148,18 +2055,21 @@
         <v>0.34</v>
       </c>
       <c r="U8">
-        <v>0.61</v>
+        <v>0.34</v>
       </c>
       <c r="V8">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" t="s">
-        <v>20</v>
+      <c r="W8">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>2012</v>
       </c>
       <c r="B9">
-        <v>2.03</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>2.03</v>
@@ -2168,46 +2078,46 @@
         <v>2.03</v>
       </c>
       <c r="E9">
+        <v>2.03</v>
+      </c>
+      <c r="F9">
         <v>0.03</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.07</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>1.4</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.03</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.01</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.5600000000000001</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2.01</v>
-      </c>
-      <c r="M9">
-        <v>0.06</v>
       </c>
       <c r="N9">
         <v>0.06</v>
       </c>
       <c r="O9">
+        <v>0.06</v>
+      </c>
+      <c r="P9">
         <v>0.01</v>
       </c>
-      <c r="P9">
-        <v>0.178</v>
-      </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>0.01</v>
-      </c>
-      <c r="R9">
-        <v>0.05</v>
       </c>
       <c r="S9">
         <v>0.05</v>
@@ -2216,18 +2126,21 @@
         <v>0.05</v>
       </c>
       <c r="U9">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="V9">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
-        <v>21</v>
+      <c r="W9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>2013</v>
       </c>
       <c r="B10">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>3.04</v>
@@ -2236,46 +2149,46 @@
         <v>3.04</v>
       </c>
       <c r="E10">
+        <v>3.04</v>
+      </c>
+      <c r="F10">
         <v>0.06</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3.1</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>2.32</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.16</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.03</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.52</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>3.03</v>
-      </c>
-      <c r="M10">
-        <v>0.07000000000000001</v>
       </c>
       <c r="N10">
         <v>0.07000000000000001</v>
       </c>
       <c r="O10">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P10">
         <v>0.01</v>
       </c>
-      <c r="P10">
-        <v>0.178</v>
-      </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>0.02</v>
-      </c>
-      <c r="R10">
-        <v>0.05</v>
       </c>
       <c r="S10">
         <v>0.05</v>
@@ -2284,18 +2197,21 @@
         <v>0.05</v>
       </c>
       <c r="U10">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="V10">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>22</v>
+      <c r="W10">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>2014</v>
       </c>
       <c r="B11">
-        <v>7.22</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>7.22</v>
@@ -2304,46 +2220,46 @@
         <v>7.22</v>
       </c>
       <c r="E11">
+        <v>7.22</v>
+      </c>
+      <c r="F11">
         <v>1.219</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>7.22</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>3.89</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.39</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1.84</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.58</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>6.7</v>
-      </c>
-      <c r="M11">
-        <v>0.53</v>
       </c>
       <c r="N11">
         <v>0.53</v>
       </c>
       <c r="O11">
-        <v>0.717</v>
+        <v>0.53</v>
       </c>
       <c r="P11">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0.43</v>
       </c>
       <c r="R11">
-        <v>0.09</v>
+        <v>0.43</v>
       </c>
       <c r="S11">
         <v>0.09</v>
@@ -2357,13 +2273,16 @@
       <c r="V11">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>23</v>
+      <c r="W11">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>2015</v>
       </c>
       <c r="B12">
-        <v>12.39</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>12.39</v>
@@ -2372,46 +2291,46 @@
         <v>12.39</v>
       </c>
       <c r="E12">
+        <v>12.39</v>
+      </c>
+      <c r="F12">
         <v>0.27</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>12.66</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>5.74</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.45</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4.13</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>1.28</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>11.59</v>
-      </c>
-      <c r="M12">
-        <v>1.07</v>
       </c>
       <c r="N12">
         <v>1.07</v>
       </c>
       <c r="O12">
+        <v>1.07</v>
+      </c>
+      <c r="P12">
         <v>0.24</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.13</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.36</v>
-      </c>
-      <c r="R12">
-        <v>0.7</v>
       </c>
       <c r="S12">
         <v>0.7</v>
@@ -2420,18 +2339,21 @@
         <v>0.7</v>
       </c>
       <c r="U12">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="V12">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" t="s">
-        <v>24</v>
+      <c r="W12">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>2016</v>
       </c>
       <c r="B13">
-        <v>20.96</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>20.96</v>
@@ -2440,46 +2362,46 @@
         <v>20.96</v>
       </c>
       <c r="E13">
+        <v>20.96</v>
+      </c>
+      <c r="F13">
         <v>0.21</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>21.17</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>10.99</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.21</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>4.61</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3.51</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>19.32</v>
-      </c>
-      <c r="M13">
-        <v>1.85</v>
       </c>
       <c r="N13">
         <v>1.85</v>
       </c>
       <c r="O13">
+        <v>1.85</v>
+      </c>
+      <c r="P13">
         <v>0.8100000000000001</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-0.18</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.63</v>
-      </c>
-      <c r="R13">
-        <v>1.22</v>
       </c>
       <c r="S13">
         <v>1.22</v>
@@ -2488,18 +2410,21 @@
         <v>1.22</v>
       </c>
       <c r="U13">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="V13">
         <v>1.13</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" t="s">
-        <v>25</v>
+      <c r="W13">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>2017</v>
       </c>
       <c r="B14">
-        <v>37.46</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>37.46</v>
@@ -2508,46 +2433,46 @@
         <v>37.46</v>
       </c>
       <c r="E14">
+        <v>37.46</v>
+      </c>
+      <c r="F14">
         <v>0.08</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>37.54</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>11.85</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.9</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3.04</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>18.32</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>34.11</v>
-      </c>
-      <c r="M14">
-        <v>3.43</v>
       </c>
       <c r="N14">
         <v>3.43</v>
       </c>
       <c r="O14">
+        <v>3.43</v>
+      </c>
+      <c r="P14">
         <v>1.67</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.13</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>1.8</v>
-      </c>
-      <c r="R14">
-        <v>1.63</v>
       </c>
       <c r="S14">
         <v>1.63</v>
@@ -2556,18 +2481,21 @@
         <v>1.63</v>
       </c>
       <c r="U14">
-        <v>0.54</v>
+        <v>1.63</v>
       </c>
       <c r="V14">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" t="s">
-        <v>26</v>
+      <c r="W14">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>2018</v>
       </c>
       <c r="B15">
-        <v>50.57</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>50.57</v>
@@ -2576,46 +2504,46 @@
         <v>50.57</v>
       </c>
       <c r="E15">
+        <v>50.57</v>
+      </c>
+      <c r="F15">
         <v>3.6</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>54.16</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>14.53</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>7.55</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.84</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>24.03</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>46.95</v>
-      </c>
-      <c r="M15">
-        <v>7.21</v>
       </c>
       <c r="N15">
         <v>7.21</v>
       </c>
       <c r="O15">
+        <v>7.21</v>
+      </c>
+      <c r="P15">
         <v>2.44</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-0.1</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>2.34</v>
-      </c>
-      <c r="R15">
-        <v>4.88</v>
       </c>
       <c r="S15">
         <v>4.88</v>
@@ -2624,18 +2552,21 @@
         <v>4.88</v>
       </c>
       <c r="U15">
-        <v>1.6</v>
+        <v>4.88</v>
       </c>
       <c r="V15">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" t="s">
-        <v>27</v>
+      <c r="W15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>2019</v>
       </c>
       <c r="B16">
-        <v>56.94</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>56.94</v>
@@ -2644,46 +2575,46 @@
         <v>56.94</v>
       </c>
       <c r="E16">
+        <v>56.94</v>
+      </c>
+      <c r="F16">
         <v>6.87</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>63.81</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>17.33</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>9.699999999999999</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.34</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>22.82</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>50.18</v>
-      </c>
-      <c r="M16">
-        <v>13.63</v>
       </c>
       <c r="N16">
         <v>13.63</v>
       </c>
       <c r="O16">
+        <v>13.63</v>
+      </c>
+      <c r="P16">
         <v>2.2</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1.7</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>3.9</v>
-      </c>
-      <c r="R16">
-        <v>9.73</v>
       </c>
       <c r="S16">
         <v>9.73</v>
@@ -2692,18 +2623,21 @@
         <v>9.73</v>
       </c>
       <c r="U16">
-        <v>3.19</v>
+        <v>9.73</v>
       </c>
       <c r="V16">
         <v>3.19</v>
       </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" t="s">
-        <v>28</v>
+      <c r="W16">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>2020</v>
       </c>
       <c r="B17">
-        <v>42.46</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>42.46</v>
@@ -2712,66 +2646,69 @@
         <v>42.46</v>
       </c>
       <c r="E17">
+        <v>42.46</v>
+      </c>
+      <c r="F17">
         <v>3.03</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>45.49</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>18.34</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>9.199999999999999</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.32</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>22.77</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>50.63</v>
-      </c>
-      <c r="M17">
-        <v>-5.14</v>
       </c>
       <c r="N17">
         <v>-5.14</v>
       </c>
       <c r="O17">
-        <v>0.717</v>
+        <v>-5.14</v>
       </c>
       <c r="P17">
-        <v>-0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>-0.07000000000000001</v>
       </c>
       <c r="R17">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="S17">
         <v>-5.07</v>
-      </c>
-      <c r="S17">
-        <v>-5.25</v>
       </c>
       <c r="T17">
         <v>-5.25</v>
       </c>
       <c r="U17">
-        <v>-1.72</v>
+        <v>-5.25</v>
       </c>
       <c r="V17">
         <v>-1.72</v>
       </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" t="s">
-        <v>29</v>
+      <c r="W17">
+        <v>-1.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>2021</v>
       </c>
       <c r="B18">
-        <v>41.26</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>41.26</v>
@@ -2780,46 +2717,46 @@
         <v>41.26</v>
       </c>
       <c r="E18">
+        <v>41.26</v>
+      </c>
+      <c r="F18">
         <v>-1.09</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>40.18</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>27.09</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>8.35</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.42</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>4.07</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>39.93</v>
-      </c>
-      <c r="M18">
-        <v>0.25</v>
       </c>
       <c r="N18">
         <v>0.25</v>
       </c>
       <c r="O18">
+        <v>0.25</v>
+      </c>
+      <c r="P18">
         <v>0.21</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.08</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.29</v>
-      </c>
-      <c r="R18">
-        <v>-0.04</v>
       </c>
       <c r="S18">
         <v>-0.04</v>
@@ -2828,18 +2765,21 @@
         <v>-0.04</v>
       </c>
       <c r="U18">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="V18">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" t="s">
-        <v>30</v>
+      <c r="W18">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>2022</v>
       </c>
       <c r="B19">
-        <v>44.23</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>44.23</v>
@@ -2848,46 +2788,46 @@
         <v>44.23</v>
       </c>
       <c r="E19">
+        <v>44.23</v>
+      </c>
+      <c r="F19">
         <v>0.83</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>45.06</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>35.43</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>8.06</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1.17</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5.43</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>50.09</v>
-      </c>
-      <c r="M19">
-        <v>-5.03</v>
       </c>
       <c r="N19">
         <v>-5.03</v>
       </c>
       <c r="O19">
-        <v>0.717</v>
+        <v>-5.03</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>-0.21</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>0.5600000000000001</v>
-      </c>
-      <c r="R19">
-        <v>-5.58</v>
       </c>
       <c r="S19">
         <v>-5.58</v>
@@ -2896,18 +2836,21 @@
         <v>-5.58</v>
       </c>
       <c r="U19">
+        <v>-5.58</v>
+      </c>
+      <c r="V19">
         <v>-1.8</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-1.59</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
-      <c r="A20" t="s">
-        <v>31</v>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>2023</v>
       </c>
       <c r="B20">
-        <v>59.31</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>59.31</v>
@@ -2916,46 +2859,46 @@
         <v>59.31</v>
       </c>
       <c r="E20">
+        <v>59.31</v>
+      </c>
+      <c r="F20">
         <v>1.77</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>61.08</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>44.08</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>5.27</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2.76</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>11.69</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>63.8</v>
-      </c>
-      <c r="M20">
-        <v>-2.72</v>
       </c>
       <c r="N20">
         <v>-2.72</v>
       </c>
       <c r="O20">
-        <v>0.717</v>
+        <v>-2.72</v>
       </c>
       <c r="P20">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0.01</v>
       </c>
       <c r="R20">
-        <v>-2.73</v>
+        <v>0.01</v>
       </c>
       <c r="S20">
         <v>-2.73</v>
@@ -2964,18 +2907,21 @@
         <v>-2.73</v>
       </c>
       <c r="U20">
-        <v>-0.82</v>
+        <v>-2.73</v>
       </c>
       <c r="V20">
         <v>-0.82</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" t="s">
-        <v>32</v>
+      <c r="W20">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>2024</v>
       </c>
       <c r="B21">
-        <v>50.23</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>50.23</v>
@@ -2984,46 +2930,46 @@
         <v>50.23</v>
       </c>
       <c r="E21">
+        <v>50.23</v>
+      </c>
+      <c r="F21">
         <v>0.5</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>50.73</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>36.53</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>5.08</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2.82</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>5.35</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>49.78</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.96</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-27.37</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.15</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.29</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.44</v>
-      </c>
-      <c r="R21">
-        <v>-27.81</v>
       </c>
       <c r="S21">
         <v>-27.81</v>
@@ -3032,9 +2978,12 @@
         <v>-27.81</v>
       </c>
       <c r="U21">
+        <v>-27.81</v>
+      </c>
+      <c r="V21">
         <v>-8.32</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-8.32</v>
       </c>
     </row>
@@ -3045,134 +2994,140 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2">
+      <c r="D2">
         <v>9.039999999999999</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>9.039999999999999</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>5.72</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>0.63</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>0.87</v>
-      </c>
-      <c r="G2">
-        <v>1.8</v>
-      </c>
-      <c r="H2">
-        <v>0.72</v>
       </c>
       <c r="I2">
         <v>1.8</v>
       </c>
       <c r="J2">
+        <v>0.72</v>
+      </c>
+      <c r="K2">
+        <v>1.8</v>
+      </c>
+      <c r="L2">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="K2">
-        <v>1.74</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
       </c>
       <c r="M2">
         <v>1.74</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.74</v>
+      </c>
+      <c r="P2">
         <v>0.2</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>1.54</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>1.54</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>10.04</v>
-      </c>
-      <c r="R2">
-        <v>1.53</v>
-      </c>
-      <c r="S2">
-        <v>1.53</v>
       </c>
       <c r="T2">
         <v>1.53</v>
@@ -3180,64 +3135,70 @@
       <c r="U2">
         <v>1.53</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>75</v>
+      <c r="V2">
+        <v>1.53</v>
+      </c>
+      <c r="W2">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>2013</v>
       </c>
       <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3">
         <v>10.37</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>10.37</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>6.41</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>0.63</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>0.85</v>
-      </c>
-      <c r="G3">
-        <v>2.48</v>
-      </c>
-      <c r="H3">
-        <v>0.079</v>
       </c>
       <c r="I3">
         <v>2.48</v>
       </c>
       <c r="J3">
+        <v>0.079</v>
+      </c>
+      <c r="K3">
+        <v>2.48</v>
+      </c>
+      <c r="L3">
         <v>0.08</v>
-      </c>
-      <c r="K3">
-        <v>2.4</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
       <c r="M3">
         <v>2.4</v>
       </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2.4</v>
+      </c>
+      <c r="P3">
         <v>0.43</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>1.97</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>1.97</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>10.04</v>
-      </c>
-      <c r="R3">
-        <v>1.96</v>
-      </c>
-      <c r="S3">
-        <v>1.96</v>
       </c>
       <c r="T3">
         <v>1.96</v>
@@ -3245,64 +3206,70 @@
       <c r="U3">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>76</v>
+      <c r="V3">
+        <v>1.96</v>
+      </c>
+      <c r="W3">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>2014</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4">
         <v>3.2</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>3.2</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>0.63</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>1.81</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>5.013</v>
-      </c>
-      <c r="G4">
-        <v>0.64</v>
-      </c>
-      <c r="H4">
-        <v>0.442</v>
       </c>
       <c r="I4">
         <v>0.64</v>
       </c>
       <c r="J4">
+        <v>0.442</v>
+      </c>
+      <c r="K4">
+        <v>0.64</v>
+      </c>
+      <c r="L4">
         <v>0.2</v>
-      </c>
-      <c r="K4">
-        <v>0.44</v>
-      </c>
-      <c r="L4">
-        <v>-14.255</v>
       </c>
       <c r="M4">
         <v>0.44</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0.44</v>
+      </c>
+      <c r="P4">
         <v>0.42</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.02</v>
-      </c>
-      <c r="P4">
-        <v>0.02</v>
-      </c>
-      <c r="Q4">
-        <v>10.04</v>
       </c>
       <c r="R4">
         <v>0.02</v>
       </c>
       <c r="S4">
-        <v>0.02</v>
+        <v>10.04</v>
       </c>
       <c r="T4">
         <v>0.02</v>
@@ -3310,64 +3277,70 @@
       <c r="U4">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>77</v>
+      <c r="V4">
+        <v>0.02</v>
+      </c>
+      <c r="W4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>2014</v>
       </c>
       <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
         <v>2.5</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>2.5</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1.07</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.951</v>
-      </c>
-      <c r="G5">
-        <v>0.26</v>
-      </c>
-      <c r="H5">
-        <v>0.596</v>
       </c>
       <c r="I5">
         <v>0.26</v>
       </c>
       <c r="J5">
+        <v>0.596</v>
+      </c>
+      <c r="K5">
+        <v>0.26</v>
+      </c>
+      <c r="L5">
         <v>0.08</v>
-      </c>
-      <c r="K5">
-        <v>0.18</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
       </c>
       <c r="M5">
         <v>0.18</v>
       </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0.18</v>
+      </c>
+      <c r="P5">
         <v>0.05</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>0.12</v>
-      </c>
-      <c r="P5">
-        <v>0.12</v>
-      </c>
-      <c r="Q5">
-        <v>10.04</v>
       </c>
       <c r="R5">
         <v>0.12</v>
       </c>
       <c r="S5">
-        <v>0.12</v>
+        <v>10.04</v>
       </c>
       <c r="T5">
         <v>0.12</v>
@@ -3375,64 +3348,70 @@
       <c r="U5">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>78</v>
+      <c r="V5">
+        <v>0.12</v>
+      </c>
+      <c r="W5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>2014</v>
       </c>
       <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6">
         <v>3.19</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>3.19</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>1.43</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1.07</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>2.716</v>
-      </c>
-      <c r="G6">
-        <v>0.28</v>
-      </c>
-      <c r="H6">
-        <v>0.72</v>
       </c>
       <c r="I6">
         <v>0.28</v>
       </c>
       <c r="J6">
+        <v>0.72</v>
+      </c>
+      <c r="K6">
+        <v>0.28</v>
+      </c>
+      <c r="L6">
         <v>0.06</v>
-      </c>
-      <c r="K6">
-        <v>0.22</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
       </c>
       <c r="M6">
         <v>0.22</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0.22</v>
+      </c>
+      <c r="P6">
         <v>0.07000000000000001</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.15</v>
-      </c>
-      <c r="P6">
-        <v>0.15</v>
-      </c>
-      <c r="Q6">
-        <v>10.04</v>
       </c>
       <c r="R6">
         <v>0.15</v>
       </c>
       <c r="S6">
-        <v>0.15</v>
+        <v>10.04</v>
       </c>
       <c r="T6">
         <v>0.15</v>
@@ -3440,64 +3419,70 @@
       <c r="U6">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>79</v>
+      <c r="V6">
+        <v>0.15</v>
+      </c>
+      <c r="W6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>2014</v>
       </c>
       <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7">
         <v>3.34</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>3.34</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>1.6</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1.08</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>2.801</v>
-      </c>
-      <c r="G7">
-        <v>0.36</v>
-      </c>
-      <c r="H7">
-        <v>0.079</v>
       </c>
       <c r="I7">
         <v>0.36</v>
       </c>
       <c r="J7">
+        <v>0.079</v>
+      </c>
+      <c r="K7">
+        <v>0.36</v>
+      </c>
+      <c r="L7">
         <v>0.08</v>
-      </c>
-      <c r="K7">
-        <v>0.28</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
       </c>
       <c r="M7">
         <v>0.28</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.28</v>
+      </c>
+      <c r="P7">
         <v>0.08</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>0.2</v>
-      </c>
-      <c r="P7">
-        <v>0.2</v>
-      </c>
-      <c r="Q7">
-        <v>10.04</v>
       </c>
       <c r="R7">
         <v>0.2</v>
       </c>
       <c r="S7">
-        <v>0.2</v>
+        <v>10.04</v>
       </c>
       <c r="T7">
         <v>0.2</v>
@@ -3505,64 +3490,70 @@
       <c r="U7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>80</v>
+      <c r="V7">
+        <v>0.2</v>
+      </c>
+      <c r="W7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>2015</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8">
         <v>3.35</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>3.35</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>1.71</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.9</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>5.013</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.35</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.27</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.62</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.22</v>
-      </c>
-      <c r="K8">
-        <v>0.39</v>
-      </c>
-      <c r="L8">
-        <v>-14.255</v>
       </c>
       <c r="M8">
         <v>0.39</v>
       </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0.39</v>
+      </c>
+      <c r="P8">
         <v>0.17</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>0.23</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>0.23</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>10.34</v>
-      </c>
-      <c r="R8">
-        <v>0.22</v>
-      </c>
-      <c r="S8">
-        <v>0.22</v>
       </c>
       <c r="T8">
         <v>0.22</v>
@@ -3570,64 +3561,70 @@
       <c r="U8">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>81</v>
+      <c r="V8">
+        <v>0.22</v>
+      </c>
+      <c r="W8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9">
+        <v>2015</v>
       </c>
       <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9">
         <v>3.97</v>
       </c>
-      <c r="C9">
+      <c r="E9">
         <v>3.97</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>1.79</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>1.47</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>1.951</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>0.26</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.08</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.34</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>1.478</v>
-      </c>
-      <c r="K9">
-        <v>0.33</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
       </c>
       <c r="M9">
         <v>0.33</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.33</v>
+      </c>
+      <c r="P9">
         <v>0.1</v>
       </c>
-      <c r="O9">
+      <c r="Q9">
         <v>0.23</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>0.23</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>10.74</v>
-      </c>
-      <c r="R9">
-        <v>0.22</v>
-      </c>
-      <c r="S9">
-        <v>0.22</v>
       </c>
       <c r="T9">
         <v>0.22</v>
@@ -3635,64 +3632,70 @@
       <c r="U9">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>82</v>
+      <c r="V9">
+        <v>0.22</v>
+      </c>
+      <c r="W9">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10">
+        <v>2015</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10">
         <v>4.12</v>
       </c>
-      <c r="C10">
+      <c r="E10">
         <v>4.12</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>1.69</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>1.48</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>2.716</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>0.42</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.01</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.43</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.02</v>
-      </c>
-      <c r="K10">
-        <v>0.42</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
       </c>
       <c r="M10">
         <v>0.42</v>
       </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.42</v>
+      </c>
+      <c r="P10">
         <v>0.12</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>0.29</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>0.29</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>10.74</v>
-      </c>
-      <c r="R10">
-        <v>0.27</v>
-      </c>
-      <c r="S10">
-        <v>0.27</v>
       </c>
       <c r="T10">
         <v>0.27</v>
@@ -3700,64 +3703,70 @@
       <c r="U10">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>83</v>
+      <c r="V10">
+        <v>0.27</v>
+      </c>
+      <c r="W10">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11">
+        <v>2015</v>
       </c>
       <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11">
         <v>6.02</v>
       </c>
-      <c r="C11">
+      <c r="E11">
         <v>6.02</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>3.25</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>1.53</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>2.801</v>
-      </c>
-      <c r="G11">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.079</v>
       </c>
       <c r="I11">
         <v>0.5600000000000001</v>
       </c>
       <c r="J11">
+        <v>0.079</v>
+      </c>
+      <c r="K11">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L11">
         <v>0.08</v>
-      </c>
-      <c r="K11">
-        <v>0.48</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
       </c>
       <c r="M11">
         <v>0.48</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0.48</v>
+      </c>
+      <c r="P11">
         <v>0.15</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>0.34</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>0.34</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>10.89</v>
-      </c>
-      <c r="R11">
-        <v>0.31</v>
-      </c>
-      <c r="S11">
-        <v>0.31</v>
       </c>
       <c r="T11">
         <v>0.31</v>
@@ -3765,64 +3774,70 @@
       <c r="U11">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>84</v>
+      <c r="V11">
+        <v>0.31</v>
+      </c>
+      <c r="W11">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12">
+        <v>2016</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
         <v>6.85</v>
       </c>
-      <c r="C12">
+      <c r="E12">
         <v>6.85</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>4.06</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.12</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>5.013</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.59</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>0.13</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.72</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.11</v>
-      </c>
-      <c r="K12">
-        <v>0.61</v>
-      </c>
-      <c r="L12">
-        <v>-14.255</v>
       </c>
       <c r="M12">
         <v>0.61</v>
       </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0.61</v>
+      </c>
+      <c r="P12">
         <v>0.26</v>
       </c>
-      <c r="O12">
+      <c r="Q12">
         <v>0.35</v>
       </c>
-      <c r="P12">
+      <c r="R12">
         <v>0.35</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>10.89</v>
-      </c>
-      <c r="R12">
-        <v>0.32</v>
-      </c>
-      <c r="S12">
-        <v>0.32</v>
       </c>
       <c r="T12">
         <v>0.32</v>
@@ -3830,64 +3845,70 @@
       <c r="U12">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>85</v>
+      <c r="V12">
+        <v>0.32</v>
+      </c>
+      <c r="W12">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13">
+        <v>2016</v>
       </c>
       <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13">
         <v>7.07</v>
       </c>
-      <c r="C13">
+      <c r="E13">
         <v>7.07</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>3.89</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>1.22</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>1.951</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>0.57</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>0.03</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.59</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.08</v>
-      </c>
-      <c r="K13">
-        <v>0.51</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
       </c>
       <c r="M13">
         <v>0.51</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0.51</v>
+      </c>
+      <c r="P13">
         <v>0.15</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>0.36</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>0.36</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>11.44</v>
-      </c>
-      <c r="R13">
-        <v>0.31</v>
-      </c>
-      <c r="S13">
-        <v>0.31</v>
       </c>
       <c r="T13">
         <v>0.31</v>
@@ -3895,64 +3916,70 @@
       <c r="U13">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>86</v>
+      <c r="V13">
+        <v>0.31</v>
+      </c>
+      <c r="W13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14">
+        <v>2016</v>
       </c>
       <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14">
         <v>8.82</v>
       </c>
-      <c r="C14">
+      <c r="E14">
         <v>8.82</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>5.16</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>1.25</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>2.716</v>
-      </c>
-      <c r="G14">
-        <v>0.87</v>
-      </c>
-      <c r="H14">
-        <v>0.72</v>
       </c>
       <c r="I14">
         <v>0.87</v>
       </c>
       <c r="J14">
+        <v>0.72</v>
+      </c>
+      <c r="K14">
+        <v>0.87</v>
+      </c>
+      <c r="L14">
         <v>0.09</v>
-      </c>
-      <c r="K14">
-        <v>0.78</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
       </c>
       <c r="M14">
         <v>0.78</v>
       </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0.78</v>
+      </c>
+      <c r="P14">
         <v>0.23</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>0.54</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>0.54</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>11.44</v>
-      </c>
-      <c r="R14">
-        <v>0.47</v>
-      </c>
-      <c r="S14">
-        <v>0.47</v>
       </c>
       <c r="T14">
         <v>0.47</v>
@@ -3960,64 +3987,70 @@
       <c r="U14">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>87</v>
+      <c r="V14">
+        <v>0.47</v>
+      </c>
+      <c r="W14">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15">
+        <v>2016</v>
       </c>
       <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15">
         <v>10.54</v>
       </c>
-      <c r="C15">
+      <c r="E15">
         <v>10.54</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>6.8</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>0.52</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>2.801</v>
-      </c>
-      <c r="G15">
-        <v>1.51</v>
-      </c>
-      <c r="H15">
-        <v>0.079</v>
       </c>
       <c r="I15">
         <v>1.51</v>
       </c>
       <c r="J15">
+        <v>0.079</v>
+      </c>
+      <c r="K15">
+        <v>1.51</v>
+      </c>
+      <c r="L15">
         <v>0.31</v>
-      </c>
-      <c r="K15">
-        <v>1.2</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
       </c>
       <c r="M15">
         <v>1.2</v>
       </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>1.2</v>
+      </c>
+      <c r="P15">
         <v>0.36</v>
       </c>
-      <c r="O15">
+      <c r="Q15">
         <v>0.84</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>0.84</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>15.26</v>
-      </c>
-      <c r="R15">
-        <v>0.27</v>
-      </c>
-      <c r="S15">
-        <v>0.27</v>
       </c>
       <c r="T15">
         <v>0.27</v>
@@ -4025,64 +4058,70 @@
       <c r="U15">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" t="s">
-        <v>88</v>
+      <c r="V15">
+        <v>0.27</v>
+      </c>
+      <c r="W15">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16">
+        <v>2017</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16">
         <v>11.03</v>
       </c>
-      <c r="C16">
+      <c r="E16">
         <v>11.03</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>6.62</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>0.31</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>5.013</v>
-      </c>
-      <c r="G16">
-        <v>2.48</v>
-      </c>
-      <c r="H16">
-        <v>0.442</v>
       </c>
       <c r="I16">
         <v>2.48</v>
       </c>
       <c r="J16">
+        <v>0.442</v>
+      </c>
+      <c r="K16">
+        <v>2.48</v>
+      </c>
+      <c r="L16">
         <v>1.46</v>
-      </c>
-      <c r="K16">
-        <v>1.03</v>
-      </c>
-      <c r="L16">
-        <v>-14.255</v>
       </c>
       <c r="M16">
         <v>1.03</v>
       </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
         <v>0.51</v>
       </c>
-      <c r="O16">
+      <c r="Q16">
         <v>0.52</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>0.52</v>
       </c>
-      <c r="Q16">
+      <c r="S16">
         <v>15.26</v>
-      </c>
-      <c r="R16">
-        <v>0.17</v>
-      </c>
-      <c r="S16">
-        <v>0.26</v>
       </c>
       <c r="T16">
         <v>0.17</v>
@@ -4090,64 +4129,70 @@
       <c r="U16">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" t="s">
-        <v>89</v>
+      <c r="V16">
+        <v>0.17</v>
+      </c>
+      <c r="W16">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17">
+        <v>2017</v>
       </c>
       <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17">
         <v>11.11</v>
       </c>
-      <c r="C17">
+      <c r="E17">
         <v>11.11</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>7.11</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>0.32</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>1.63</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>2.05</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>0.27</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>2.33</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>1.43</v>
-      </c>
-      <c r="K17">
-        <v>0.9</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
       </c>
       <c r="M17">
         <v>0.9</v>
       </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.9</v>
+      </c>
+      <c r="P17">
         <v>0.19</v>
       </c>
-      <c r="O17">
+      <c r="Q17">
         <v>0.71</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>0.71</v>
       </c>
-      <c r="Q17">
+      <c r="S17">
         <v>15.26</v>
-      </c>
-      <c r="R17">
-        <v>0.23</v>
-      </c>
-      <c r="S17">
-        <v>0.23</v>
       </c>
       <c r="T17">
         <v>0.23</v>
@@ -4155,64 +4200,70 @@
       <c r="U17">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" t="s">
-        <v>90</v>
+      <c r="V17">
+        <v>0.23</v>
+      </c>
+      <c r="W17">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18">
+        <v>2017</v>
       </c>
       <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
         <v>13.58</v>
       </c>
-      <c r="C18">
+      <c r="E18">
         <v>13.58</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>3.63</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>0.32</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>7</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>2.64</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>1.22</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>3.85</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>1.78</v>
-      </c>
-      <c r="K18">
-        <v>2.08</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
       </c>
       <c r="M18">
         <v>2.08</v>
       </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.08</v>
+      </c>
+      <c r="P18">
         <v>0.63</v>
       </c>
-      <c r="O18">
+      <c r="Q18">
         <v>1.45</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>1.45</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>15.26</v>
-      </c>
-      <c r="R18">
-        <v>0.47</v>
-      </c>
-      <c r="S18">
-        <v>0.47</v>
       </c>
       <c r="T18">
         <v>0.47</v>
@@ -4220,64 +4271,70 @@
       <c r="U18">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" t="s">
-        <v>91</v>
+      <c r="V18">
+        <v>0.47</v>
+      </c>
+      <c r="W18">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19">
+        <v>2017</v>
       </c>
       <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19">
         <v>9.6</v>
       </c>
-      <c r="C19">
+      <c r="E19">
         <v>9.6</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>3.51</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>0.1</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>4.32</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>1.67</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>1.26</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>2.92</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>2.07</v>
-      </c>
-      <c r="K19">
-        <v>0.85</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
       </c>
       <c r="M19">
         <v>0.85</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0.85</v>
+      </c>
+      <c r="P19">
         <v>0.23</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>0.62</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>0.62</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>15.26</v>
-      </c>
-      <c r="R19">
-        <v>0.2</v>
-      </c>
-      <c r="S19">
-        <v>0.2</v>
       </c>
       <c r="T19">
         <v>0.2</v>
@@ -4285,64 +4342,70 @@
       <c r="U19">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" t="s">
-        <v>92</v>
+      <c r="V19">
+        <v>0.2</v>
+      </c>
+      <c r="W19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20">
+        <v>2018</v>
       </c>
       <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20">
         <v>16.28</v>
       </c>
-      <c r="C20">
+      <c r="E20">
         <v>16.28</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>4.35</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>0.11</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>7.17</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>4.64</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>1.2</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>5.84</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>2.45</v>
-      </c>
-      <c r="K20">
-        <v>3.39</v>
-      </c>
-      <c r="L20">
-        <v>-14.255</v>
       </c>
       <c r="M20">
         <v>3.39</v>
       </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>3.39</v>
+      </c>
+      <c r="P20">
         <v>1.28</v>
       </c>
-      <c r="O20">
+      <c r="Q20">
         <v>2.11</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>2.11</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>15.26</v>
-      </c>
-      <c r="R20">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="S20">
-        <v>0.6899999999999999</v>
       </c>
       <c r="T20">
         <v>0.6899999999999999</v>
@@ -4350,64 +4413,70 @@
       <c r="U20">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" t="s">
-        <v>93</v>
+      <c r="V20">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="W20">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21">
+        <v>2018</v>
       </c>
       <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21">
         <v>14.69</v>
       </c>
-      <c r="C21">
+      <c r="E21">
         <v>14.69</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>4.09</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>0.08</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>6.58</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>3.95</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>3.87</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>7.81</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>2.08</v>
-      </c>
-      <c r="K21">
-        <v>5.73</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
       </c>
       <c r="M21">
         <v>5.73</v>
       </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>5.73</v>
+      </c>
+      <c r="P21">
         <v>1.57</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>4.16</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>4.16</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>15.26</v>
-      </c>
-      <c r="R21">
-        <v>1.36</v>
-      </c>
-      <c r="S21">
-        <v>1.36</v>
       </c>
       <c r="T21">
         <v>1.36</v>
@@ -4415,64 +4484,70 @@
       <c r="U21">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" t="s">
-        <v>94</v>
+      <c r="V21">
+        <v>1.36</v>
+      </c>
+      <c r="W21">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22">
+        <v>2018</v>
       </c>
       <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
         <v>16.4</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>16.4</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>4.66</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>0.09</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>7.8</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>3.85</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>5.24</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>9.09</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>2.97</v>
-      </c>
-      <c r="K22">
-        <v>6.13</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
       </c>
       <c r="M22">
         <v>6.13</v>
       </c>
       <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>6.13</v>
+      </c>
+      <c r="P22">
         <v>1.75</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>4.37</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>4.37</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>15.26</v>
-      </c>
-      <c r="R22">
-        <v>1.44</v>
-      </c>
-      <c r="S22">
-        <v>1.44</v>
       </c>
       <c r="T22">
         <v>1.44</v>
@@ -4480,64 +4555,70 @@
       <c r="U22">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" t="s">
-        <v>95</v>
+      <c r="V22">
+        <v>1.44</v>
+      </c>
+      <c r="W22">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23">
+        <v>2018</v>
       </c>
       <c r="B23">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23">
         <v>12.64</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>12.64</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>3.94</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>0.09</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>4.63</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>3.97</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>-2.27</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>1.71</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>2.16</v>
-      </c>
-      <c r="K23">
-        <v>-0.45</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
       </c>
       <c r="M23">
         <v>-0.45</v>
       </c>
       <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>-0.45</v>
+      </c>
+      <c r="P23">
         <v>-0.11</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>-0.34</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>-0.34</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>15.26</v>
-      </c>
-      <c r="R23">
-        <v>-0.11</v>
-      </c>
-      <c r="S23">
-        <v>-0.11</v>
       </c>
       <c r="T23">
         <v>-0.11</v>
@@ -4545,64 +4626,70 @@
       <c r="U23">
         <v>-0.11</v>
       </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" t="s">
-        <v>96</v>
+      <c r="V23">
+        <v>-0.11</v>
+      </c>
+      <c r="W23">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>2019</v>
       </c>
       <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
         <v>13.21</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>13.24</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>4.64</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>0.08</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>3.81</v>
-      </c>
-      <c r="G24">
-        <v>4.71</v>
-      </c>
-      <c r="H24">
-        <v>0.442</v>
       </c>
       <c r="I24">
         <v>4.71</v>
       </c>
       <c r="J24">
+        <v>0.442</v>
+      </c>
+      <c r="K24">
+        <v>4.71</v>
+      </c>
+      <c r="L24">
         <v>2.49</v>
-      </c>
-      <c r="K24">
-        <v>2.22</v>
-      </c>
-      <c r="L24">
-        <v>-14.255</v>
       </c>
       <c r="M24">
         <v>2.22</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.22</v>
+      </c>
+      <c r="P24">
         <v>0.6899999999999999</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>1.54</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>1.54</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>15.26</v>
-      </c>
-      <c r="R24">
-        <v>0.5</v>
-      </c>
-      <c r="S24">
-        <v>0.5</v>
       </c>
       <c r="T24">
         <v>0.5</v>
@@ -4610,64 +4697,70 @@
       <c r="U24">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" t="s">
-        <v>97</v>
+      <c r="V24">
+        <v>0.5</v>
+      </c>
+      <c r="W24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>2019</v>
       </c>
       <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
         <v>10.03</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>10.03</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>4.79</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>0.06</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>1.29</v>
-      </c>
-      <c r="G25">
-        <v>3.89</v>
-      </c>
-      <c r="H25">
-        <v>0.01</v>
       </c>
       <c r="I25">
         <v>3.89</v>
       </c>
       <c r="J25">
+        <v>0.01</v>
+      </c>
+      <c r="K25">
+        <v>3.89</v>
+      </c>
+      <c r="L25">
         <v>2.36</v>
-      </c>
-      <c r="K25">
-        <v>1.54</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
       </c>
       <c r="M25">
         <v>1.54</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.54</v>
+      </c>
+      <c r="P25">
         <v>0.44</v>
       </c>
-      <c r="O25">
+      <c r="Q25">
         <v>1.09</v>
       </c>
-      <c r="P25">
+      <c r="R25">
         <v>1.09</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>15.26</v>
-      </c>
-      <c r="R25">
-        <v>0.36</v>
-      </c>
-      <c r="S25">
-        <v>0.36</v>
       </c>
       <c r="T25">
         <v>0.36</v>
@@ -4675,64 +4768,70 @@
       <c r="U25">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" t="s">
-        <v>98</v>
+      <c r="V25">
+        <v>0.36</v>
+      </c>
+      <c r="W25">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>2019</v>
       </c>
       <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26">
         <v>11.08</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>11.08</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>5.07</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>0.08</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>1.33</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>4.59</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>0.01</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>4.6</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>2.29</v>
-      </c>
-      <c r="K26">
-        <v>2.31</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
       </c>
       <c r="M26">
         <v>2.31</v>
       </c>
       <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>2.31</v>
+      </c>
+      <c r="P26">
         <v>0.64</v>
       </c>
-      <c r="O26">
+      <c r="Q26">
         <v>1.67</v>
       </c>
-      <c r="P26">
+      <c r="R26">
         <v>1.67</v>
       </c>
-      <c r="Q26">
+      <c r="S26">
         <v>15.26</v>
-      </c>
-      <c r="R26">
-        <v>0.55</v>
-      </c>
-      <c r="S26">
-        <v>0.55</v>
       </c>
       <c r="T26">
         <v>0.55</v>
@@ -4740,64 +4839,70 @@
       <c r="U26">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="27" spans="1:21">
-      <c r="A27" t="s">
-        <v>99</v>
+      <c r="V26">
+        <v>0.55</v>
+      </c>
+      <c r="W26">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>2019</v>
       </c>
       <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27">
         <v>11.12</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>11.12</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>4.94</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>0.09</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>1.4</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>4.69</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>1.42</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>6.11</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>2.35</v>
-      </c>
-      <c r="K27">
-        <v>3.76</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
       </c>
       <c r="M27">
         <v>3.76</v>
       </c>
       <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>3.76</v>
+      </c>
+      <c r="P27">
         <v>1.05</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>2.72</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>2.72</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>15.26</v>
-      </c>
-      <c r="R27">
-        <v>0.89</v>
-      </c>
-      <c r="S27">
-        <v>0.89</v>
       </c>
       <c r="T27">
         <v>0.89</v>
@@ -4805,64 +4910,70 @@
       <c r="U27">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="28" spans="1:21">
-      <c r="A28" t="s">
-        <v>100</v>
+      <c r="V27">
+        <v>0.89</v>
+      </c>
+      <c r="W27">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28">
+        <v>2020</v>
       </c>
       <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28">
         <v>10.22</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>10.22</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>3.53</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>0.09</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>18.74</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>-12.14</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>1.6</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>-10.55</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>2.21</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>-12.75</v>
       </c>
-      <c r="L28">
+      <c r="N28">
         <v>-0.18</v>
       </c>
-      <c r="M28">
+      <c r="O28">
         <v>-12.94</v>
       </c>
-      <c r="N28">
+      <c r="P28">
         <v>-2.2</v>
       </c>
-      <c r="O28">
+      <c r="Q28">
         <v>-10.73</v>
       </c>
-      <c r="P28">
+      <c r="R28">
         <v>-10.73</v>
       </c>
-      <c r="Q28">
+      <c r="S28">
         <v>15.26</v>
-      </c>
-      <c r="R28">
-        <v>-3.52</v>
-      </c>
-      <c r="S28">
-        <v>-3.52</v>
       </c>
       <c r="T28">
         <v>-3.52</v>
@@ -4870,64 +4981,70 @@
       <c r="U28">
         <v>-3.52</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
-      <c r="A29" t="s">
-        <v>101</v>
+      <c r="V28">
+        <v>-3.52</v>
+      </c>
+      <c r="W28">
+        <v>-3.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29">
+        <v>2020</v>
       </c>
       <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29">
         <v>14.01</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>14.01</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>5.06</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>0.06</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>1.23</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>7.66</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>0.47</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>8.130000000000001</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>2.02</v>
-      </c>
-      <c r="K29">
-        <v>6.11</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
       </c>
       <c r="M29">
         <v>6.11</v>
       </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>6.11</v>
+      </c>
+      <c r="P29">
         <v>1.7</v>
       </c>
-      <c r="O29">
+      <c r="Q29">
         <v>4.41</v>
       </c>
-      <c r="P29">
+      <c r="R29">
         <v>4.41</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>15.26</v>
-      </c>
-      <c r="R29">
-        <v>1.44</v>
-      </c>
-      <c r="S29">
-        <v>1.44</v>
       </c>
       <c r="T29">
         <v>1.44</v>
@@ -4935,64 +5052,70 @@
       <c r="U29">
         <v>1.44</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
-      <c r="A30" t="s">
-        <v>102</v>
+      <c r="V29">
+        <v>1.44</v>
+      </c>
+      <c r="W29">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30">
+        <v>2020</v>
       </c>
       <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30">
         <v>10.32</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>10.32</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>7.29</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>0.13</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>1.39</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>1.51</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>-1.22</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>0.29</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>2.17</v>
-      </c>
-      <c r="K30">
-        <v>-1.88</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
       </c>
       <c r="M30">
         <v>-1.88</v>
       </c>
       <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>-1.88</v>
+      </c>
+      <c r="P30">
         <v>-0.66</v>
       </c>
-      <c r="O30">
+      <c r="Q30">
         <v>-1.23</v>
       </c>
-      <c r="P30">
+      <c r="R30">
         <v>-1.23</v>
       </c>
-      <c r="Q30">
+      <c r="S30">
         <v>15.26</v>
-      </c>
-      <c r="R30">
-        <v>-0.4</v>
-      </c>
-      <c r="S30">
-        <v>-0.4</v>
       </c>
       <c r="T30">
         <v>-0.4</v>
@@ -5000,64 +5123,70 @@
       <c r="U30">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="31" spans="1:21">
-      <c r="A31" t="s">
-        <v>103</v>
+      <c r="V30">
+        <v>-0.4</v>
+      </c>
+      <c r="W30">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31">
+        <v>2020</v>
       </c>
       <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31">
         <v>9.369999999999999</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>9.369999999999999</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>7.55</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>0.13</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>1.11</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>0.58</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>-0.37</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>0.21</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>2.16</v>
-      </c>
-      <c r="K31">
-        <v>-1.96</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
       </c>
       <c r="M31">
         <v>-1.96</v>
       </c>
       <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>-1.96</v>
+      </c>
+      <c r="P31">
         <v>-0.53</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>-1.43</v>
       </c>
-      <c r="P31">
+      <c r="R31">
         <v>-1.43</v>
       </c>
-      <c r="Q31">
+      <c r="S31">
         <v>15.26</v>
-      </c>
-      <c r="R31">
-        <v>-0.47</v>
-      </c>
-      <c r="S31">
-        <v>-0.47</v>
       </c>
       <c r="T31">
         <v>-0.47</v>
@@ -5065,64 +5194,70 @@
       <c r="U31">
         <v>-0.47</v>
       </c>
-    </row>
-    <row r="32" spans="1:21">
-      <c r="A32" t="s">
-        <v>104</v>
+      <c r="V31">
+        <v>-0.47</v>
+      </c>
+      <c r="W31">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32">
+        <v>2021</v>
       </c>
       <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32">
         <v>7.57</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>7.57</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>6.77</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>0.09</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>0.76</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>-0.06</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>0.03</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>-0.03</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>1.99</v>
-      </c>
-      <c r="K32">
-        <v>-2.02</v>
-      </c>
-      <c r="L32">
-        <v>-14.255</v>
       </c>
       <c r="M32">
         <v>-2.02</v>
       </c>
       <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>-2.02</v>
+      </c>
+      <c r="P32">
         <v>-0.22</v>
       </c>
-      <c r="O32">
+      <c r="Q32">
         <v>-1.8</v>
       </c>
-      <c r="P32">
+      <c r="R32">
         <v>-1.8</v>
       </c>
-      <c r="Q32">
+      <c r="S32">
         <v>15.26</v>
-      </c>
-      <c r="R32">
-        <v>-0.59</v>
-      </c>
-      <c r="S32">
-        <v>-0.59</v>
       </c>
       <c r="T32">
         <v>-0.59</v>
@@ -5130,64 +5265,70 @@
       <c r="U32">
         <v>-0.59</v>
       </c>
-    </row>
-    <row r="33" spans="1:21">
-      <c r="A33" t="s">
-        <v>105</v>
+      <c r="V32">
+        <v>-0.59</v>
+      </c>
+      <c r="W32">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33">
+        <v>2021</v>
       </c>
       <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33">
         <v>10.12</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>10.12</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>7.76</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>0.12</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>1</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>1.23</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>0.36</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>1.59</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>2.79</v>
-      </c>
-      <c r="K33">
-        <v>-1.2</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
       </c>
       <c r="M33">
         <v>-1.2</v>
       </c>
       <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>-1.2</v>
+      </c>
+      <c r="P33">
         <v>0.93</v>
       </c>
-      <c r="O33">
+      <c r="Q33">
         <v>-2.13</v>
       </c>
-      <c r="P33">
+      <c r="R33">
         <v>-2.13</v>
       </c>
-      <c r="Q33">
+      <c r="S33">
         <v>15.26</v>
-      </c>
-      <c r="R33">
-        <v>-0.7</v>
-      </c>
-      <c r="S33">
-        <v>-0.61</v>
       </c>
       <c r="T33">
         <v>-0.7</v>
@@ -5195,64 +5336,70 @@
       <c r="U33">
         <v>-0.61</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
-      <c r="A34" t="s">
-        <v>106</v>
+      <c r="V33">
+        <v>-0.7</v>
+      </c>
+      <c r="W33">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34">
+        <v>2021</v>
       </c>
       <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34">
         <v>9.539999999999999</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>9.539999999999999</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>7.56</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>0.15</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>1.14</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>0.68</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>0.05</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>0.73</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>1.81</v>
-      </c>
-      <c r="K34">
-        <v>-1.08</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
       </c>
       <c r="M34">
         <v>-1.08</v>
       </c>
       <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>-1.08</v>
+      </c>
+      <c r="P34">
         <v>-0.08</v>
       </c>
-      <c r="O34">
+      <c r="Q34">
         <v>-1.01</v>
       </c>
-      <c r="P34">
+      <c r="R34">
         <v>-1.01</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>15.26</v>
-      </c>
-      <c r="R34">
-        <v>-0.33</v>
-      </c>
-      <c r="S34">
-        <v>-0.29</v>
       </c>
       <c r="T34">
         <v>-0.33</v>
@@ -5260,64 +5407,70 @@
       <c r="U34">
         <v>-0.29</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" t="s">
-        <v>107</v>
+      <c r="V34">
+        <v>-0.33</v>
+      </c>
+      <c r="W34">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35">
+        <v>2021</v>
       </c>
       <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35">
         <v>10.77</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>10.77</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>10.05</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>0.31</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>1.68</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>-1.27</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>0.15</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>-1.12</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>1.74</v>
-      </c>
-      <c r="K35">
-        <v>-2.86</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
       </c>
       <c r="M35">
         <v>-2.86</v>
       </c>
       <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>-2.86</v>
+      </c>
+      <c r="P35">
         <v>-0.16</v>
       </c>
-      <c r="O35">
+      <c r="Q35">
         <v>-2.7</v>
       </c>
-      <c r="P35">
+      <c r="R35">
         <v>-2.7</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>15.84</v>
-      </c>
-      <c r="R35">
-        <v>-0.85</v>
-      </c>
-      <c r="S35">
-        <v>0.269</v>
       </c>
       <c r="T35">
         <v>-0.85</v>
@@ -5325,64 +5478,70 @@
       <c r="U35">
         <v>0.269</v>
       </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" t="s">
-        <v>108</v>
+      <c r="V35">
+        <v>-0.85</v>
+      </c>
+      <c r="W35">
+        <v>0.269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36">
+        <v>2022</v>
       </c>
       <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36">
         <v>13.81</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>13.81</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>10.05</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>0.6</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>1.6</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>1.56</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>0.28</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>1.83</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>1.72</v>
-      </c>
-      <c r="K36">
-        <v>0.11</v>
-      </c>
-      <c r="L36">
-        <v>-14.255</v>
       </c>
       <c r="M36">
         <v>0.11</v>
       </c>
       <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0.11</v>
+      </c>
+      <c r="P36">
         <v>-0.14</v>
       </c>
-      <c r="O36">
+      <c r="Q36">
         <v>0.25</v>
       </c>
-      <c r="P36">
+      <c r="R36">
         <v>0.25</v>
       </c>
-      <c r="Q36">
+      <c r="S36">
         <v>16.09</v>
-      </c>
-      <c r="R36">
-        <v>0.08</v>
-      </c>
-      <c r="S36">
-        <v>0.7</v>
       </c>
       <c r="T36">
         <v>0.08</v>
@@ -5390,64 +5549,70 @@
       <c r="U36">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
-      <c r="A37" t="s">
-        <v>109</v>
+      <c r="V36">
+        <v>0.08</v>
+      </c>
+      <c r="W36">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37">
+        <v>2022</v>
       </c>
       <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37">
         <v>14.56</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>14.56</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>11.04</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>0.66</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>1.62</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>1.25</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>0.8</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>2.05</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>1.39</v>
-      </c>
-      <c r="K37">
-        <v>0.66</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
       </c>
       <c r="M37">
         <v>0.66</v>
       </c>
       <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0.66</v>
+      </c>
+      <c r="P37">
         <v>0.26</v>
       </c>
-      <c r="O37">
+      <c r="Q37">
         <v>0.4</v>
       </c>
-      <c r="P37">
+      <c r="R37">
         <v>0.4</v>
       </c>
-      <c r="Q37">
+      <c r="S37">
         <v>16.71</v>
-      </c>
-      <c r="R37">
-        <v>0.12</v>
-      </c>
-      <c r="S37">
-        <v>0.11</v>
       </c>
       <c r="T37">
         <v>0.12</v>
@@ -5455,64 +5620,70 @@
       <c r="U37">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
-      <c r="A38" t="s">
-        <v>110</v>
+      <c r="V37">
+        <v>0.12</v>
+      </c>
+      <c r="W37">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38">
+        <v>2022</v>
       </c>
       <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38">
         <v>14.26</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>14.26</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>10.86</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>0.67</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>2.26</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>0.47</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>0.79</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>1.26</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>1.28</v>
-      </c>
-      <c r="K38">
-        <v>-0.01</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
       </c>
       <c r="M38">
         <v>-0.01</v>
       </c>
       <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>-0.01</v>
+      </c>
+      <c r="P38">
         <v>0.12</v>
       </c>
-      <c r="O38">
+      <c r="Q38">
         <v>-0.14</v>
       </c>
-      <c r="P38">
+      <c r="R38">
         <v>-0.14</v>
       </c>
-      <c r="Q38">
+      <c r="S38">
         <v>16.71</v>
-      </c>
-      <c r="R38">
-        <v>-0.04</v>
-      </c>
-      <c r="S38">
-        <v>-0.04</v>
       </c>
       <c r="T38">
         <v>-0.04</v>
@@ -5520,64 +5691,70 @@
       <c r="U38">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
-      <c r="A39" t="s">
-        <v>111</v>
+      <c r="V38">
+        <v>-0.04</v>
+      </c>
+      <c r="W38">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39">
+        <v>2022</v>
       </c>
       <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39">
         <v>18.86</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>18.86</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>11.87</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>0.71</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>7.7</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>-1.42</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>0.25</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>-1.17</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>1.28</v>
-      </c>
-      <c r="K39">
-        <v>-2.46</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
       </c>
       <c r="M39">
         <v>-2.46</v>
       </c>
       <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>-2.46</v>
+      </c>
+      <c r="P39">
         <v>-0.1</v>
       </c>
-      <c r="O39">
+      <c r="Q39">
         <v>-2.36</v>
       </c>
-      <c r="P39">
+      <c r="R39">
         <v>-2.36</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>16.71</v>
-      </c>
-      <c r="R39">
-        <v>-0.71</v>
-      </c>
-      <c r="S39">
-        <v>-0.71</v>
       </c>
       <c r="T39">
         <v>-0.71</v>
@@ -5585,64 +5762,70 @@
       <c r="U39">
         <v>-0.71</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
-      <c r="A40" t="s">
-        <v>112</v>
+      <c r="V39">
+        <v>-0.71</v>
+      </c>
+      <c r="W39">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40">
+        <v>2023</v>
       </c>
       <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40">
         <v>11.63</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>11.63</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>9.210000000000001</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>0.73</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>1.21</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>0.48</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>-0.08</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>0.41</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>1.31</v>
-      </c>
-      <c r="K40">
-        <v>-0.91</v>
-      </c>
-      <c r="L40">
-        <v>-14.255</v>
       </c>
       <c r="M40">
         <v>-0.91</v>
       </c>
       <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>-0.91</v>
+      </c>
+      <c r="P40">
         <v>-0.27</v>
       </c>
-      <c r="O40">
+      <c r="Q40">
         <v>-0.64</v>
       </c>
-      <c r="P40">
+      <c r="R40">
         <v>-0.64</v>
       </c>
-      <c r="Q40">
+      <c r="S40">
         <v>16.71</v>
-      </c>
-      <c r="R40">
-        <v>-0.19</v>
-      </c>
-      <c r="S40">
-        <v>-0.19</v>
       </c>
       <c r="T40">
         <v>-0.19</v>
@@ -5650,64 +5833,70 @@
       <c r="U40">
         <v>-0.19</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
-      <c r="A41" t="s">
-        <v>113</v>
+      <c r="V40">
+        <v>-0.19</v>
+      </c>
+      <c r="W40">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41">
+        <v>2023</v>
       </c>
       <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41">
         <v>15.62</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>15.62</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>9.779999999999999</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>0.73</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>1.42</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>3.69</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>0.06</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>3.75</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>1.33</v>
-      </c>
-      <c r="K41">
-        <v>2.41</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
       </c>
       <c r="M41">
         <v>2.41</v>
       </c>
       <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>2.41</v>
+      </c>
+      <c r="P41">
         <v>0.42</v>
       </c>
-      <c r="O41">
+      <c r="Q41">
         <v>1.99</v>
       </c>
-      <c r="P41">
+      <c r="R41">
         <v>1.99</v>
       </c>
-      <c r="Q41">
+      <c r="S41">
         <v>16.71</v>
-      </c>
-      <c r="R41">
-        <v>0.6</v>
-      </c>
-      <c r="S41">
-        <v>0.6</v>
       </c>
       <c r="T41">
         <v>0.6</v>
@@ -5715,64 +5904,70 @@
       <c r="U41">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:21">
-      <c r="A42" t="s">
-        <v>114</v>
+      <c r="V41">
+        <v>0.6</v>
+      </c>
+      <c r="W41">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42">
+        <v>2023</v>
       </c>
       <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42">
         <v>13.51</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>13.51</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>8.880000000000001</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>0.72</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>1.4</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>2.51</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>0.23</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>2.74</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>1.27</v>
-      </c>
-      <c r="K42">
-        <v>1.47</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
       </c>
       <c r="M42">
         <v>1.47</v>
       </c>
       <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1.47</v>
+      </c>
+      <c r="P42">
         <v>0.29</v>
       </c>
-      <c r="O42">
+      <c r="Q42">
         <v>1.18</v>
       </c>
-      <c r="P42">
+      <c r="R42">
         <v>1.18</v>
       </c>
-      <c r="Q42">
+      <c r="S42">
         <v>16.71</v>
-      </c>
-      <c r="R42">
-        <v>0.35</v>
-      </c>
-      <c r="S42">
-        <v>0.35</v>
       </c>
       <c r="T42">
         <v>0.35</v>
@@ -5780,64 +5975,70 @@
       <c r="U42">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" t="s">
-        <v>115</v>
+      <c r="V42">
+        <v>0.35</v>
+      </c>
+      <c r="W42">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43">
+        <v>2023</v>
       </c>
       <c r="B43">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43">
         <v>10.71</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>10.71</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>7.32</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>0.6899999999999999</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>0.72</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>1.98</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>0.11</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>2.09</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>1.26</v>
-      </c>
-      <c r="K43">
-        <v>0.83</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
       </c>
       <c r="M43">
         <v>0.83</v>
       </c>
       <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0.83</v>
+      </c>
+      <c r="P43">
         <v>0.32</v>
       </c>
-      <c r="O43">
+      <c r="Q43">
         <v>0.51</v>
       </c>
-      <c r="P43">
+      <c r="R43">
         <v>0.51</v>
       </c>
-      <c r="Q43">
+      <c r="S43">
         <v>16.71</v>
-      </c>
-      <c r="R43">
-        <v>0.15</v>
-      </c>
-      <c r="S43">
-        <v>0.15</v>
       </c>
       <c r="T43">
         <v>0.15</v>
@@ -5845,64 +6046,70 @@
       <c r="U43">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
-      <c r="A44" t="s">
-        <v>116</v>
+      <c r="V43">
+        <v>0.15</v>
+      </c>
+      <c r="W43">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44">
+        <v>2024</v>
       </c>
       <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44">
         <v>10.39</v>
       </c>
-      <c r="C44">
+      <c r="E44">
         <v>10.39</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>10.55</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>0.68</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>1.8</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>-2.64</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>0.11</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>-2.53</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>1.22</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>-3.76</v>
       </c>
-      <c r="L44">
+      <c r="N44">
         <v>-28.33</v>
       </c>
-      <c r="M44">
+      <c r="O44">
         <v>-32.08</v>
       </c>
-      <c r="N44">
+      <c r="P44">
         <v>-0.58</v>
       </c>
-      <c r="O44">
+      <c r="Q44">
         <v>-31.5</v>
       </c>
-      <c r="P44">
+      <c r="R44">
         <v>-31.5</v>
       </c>
-      <c r="Q44">
+      <c r="S44">
         <v>16.71</v>
-      </c>
-      <c r="R44">
-        <v>-9.4</v>
-      </c>
-      <c r="S44">
-        <v>-9.4</v>
       </c>
       <c r="T44">
         <v>-9.4</v>
@@ -5910,64 +6117,70 @@
       <c r="U44">
         <v>-9.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
-      <c r="A45" t="s">
-        <v>117</v>
+      <c r="V44">
+        <v>-9.4</v>
+      </c>
+      <c r="W44">
+        <v>-9.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45">
+        <v>2024</v>
       </c>
       <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45">
         <v>10.68</v>
       </c>
-      <c r="C45">
+      <c r="E45">
         <v>10.68</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>7.53</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>0.68</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>0.84</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>1.62</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>0.01</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>1.63</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>1.22</v>
-      </c>
-      <c r="K45">
-        <v>0.41</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
       </c>
       <c r="M45">
         <v>0.41</v>
       </c>
       <c r="N45">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>0.41</v>
       </c>
       <c r="P45">
+        <v>0.01</v>
+      </c>
+      <c r="Q45">
         <v>0.41</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
+        <v>0.41</v>
+      </c>
+      <c r="S45">
         <v>16.71</v>
-      </c>
-      <c r="R45">
-        <v>0.12</v>
-      </c>
-      <c r="S45">
-        <v>0.12</v>
       </c>
       <c r="T45">
         <v>0.12</v>
@@ -5975,69 +6188,81 @@
       <c r="U45">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="46" spans="1:21">
-      <c r="A46" t="s">
-        <v>118</v>
+      <c r="V45">
+        <v>0.12</v>
+      </c>
+      <c r="W45">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46">
+        <v>2024</v>
       </c>
       <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46">
         <v>13.34</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>13.34</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>9.73</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>0.65</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>1.25</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>1.7</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>0.15</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>1.86</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>1.34</v>
-      </c>
-      <c r="K46">
-        <v>0.52</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
       </c>
       <c r="M46">
         <v>0.52</v>
       </c>
       <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0.52</v>
+      </c>
+      <c r="P46">
         <v>0.09</v>
       </c>
-      <c r="O46">
+      <c r="Q46">
         <v>0.43</v>
       </c>
-      <c r="P46">
+      <c r="R46">
         <v>0.43</v>
       </c>
-      <c r="Q46">
+      <c r="S46">
         <v>16.71</v>
-      </c>
-      <c r="R46">
-        <v>0.13</v>
-      </c>
-      <c r="S46">
-        <v>0.13</v>
       </c>
       <c r="T46">
         <v>0.13</v>
       </c>
       <c r="U46">
+        <v>0.13</v>
+      </c>
+      <c r="V46">
+        <v>0.13</v>
+      </c>
+      <c r="W46">
         <v>0.13</v>
       </c>
     </row>
